--- a/data/Tickers_Yahoo_F.xlsx
+++ b/data/Tickers_Yahoo_F.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thier\Desktop\Tickers_Yahoo_F\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thier\Desktop\PowerBi _Projet_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FB0273-BF51-4B13-9CB8-58D9141FB493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EF5F0F-B03E-446F-BE0F-25AA007572CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4474" uniqueCount="4474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="4477">
   <si>
     <t>stock_ticker</t>
   </si>
@@ -13442,6 +13442,15 @@
   </si>
   <si>
     <t>LILAK</t>
+  </si>
+  <si>
+    <t>COV.PA</t>
+  </si>
+  <si>
+    <t>URW.PA</t>
+  </si>
+  <si>
+    <t>ROG.SW</t>
   </si>
 </sst>
 </file>
@@ -13718,11 +13727,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4477"/>
+  <dimension ref="A1:A4480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A3446" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3459" sqref="A3459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28922,7192 +28931,7207 @@
     </row>
     <row r="3039" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3039" t="s">
-        <v>3795</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="3040" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3040" t="s">
-        <v>3796</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="3041" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3041" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="3042" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3042" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="3043" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3043" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="3044" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3044" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="3045" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3045" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="3046" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3046" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="3047" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3047" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="3048" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3048" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="3049" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3049" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="3050" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3050" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="3051" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3051" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="3052" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3052" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="3053" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3053" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="3054" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3054" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="3055" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3055" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="3056" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3056" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="3057" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3057" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="3058" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3058" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="3059" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3059" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="3060" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3060" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="3061" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3061" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="3062" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3062" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="3063" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3063" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="3064" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3064" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="3065" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3065" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="3066" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3066" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="3067" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3067" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="3068" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3068" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="3069" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3069" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="3070" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3070" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="3071" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3071" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="3072" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3072" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="3073" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3073" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="3074" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3074" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="3075" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3075" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="3076" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3076" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="3077" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3077" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="3078" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3078" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="3079" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3079" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="3080" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3080" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="3081" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3081" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="3082" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3082" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="3083" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3083" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="3084" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3084" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="3085" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3085" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="3086" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3086" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="3087" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3087" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="3088" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3088" t="s">
-        <v>3844</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="3089" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3089" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="3090" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3090" t="s">
-        <v>3846</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="3091" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3091" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="3092" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3092" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="3093" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3093" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="3094" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3094" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="3095" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3095" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="3096" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3096" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="3097" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3097" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="3098" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3098" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="3099" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3099" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="3100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3100" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="3101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3101" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="3102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3102" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="3103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3103" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="3104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3104" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="3105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3105" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="3106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3106" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="3107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3107" t="s">
-        <v>3863</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="3108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3108" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="3109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3109" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="3110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3110" t="s">
-        <v>3866</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="3111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3111" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="3112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3112" t="s">
-        <v>3868</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="3113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3113" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="3114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3114" t="s">
-        <v>4456</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="3115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3115" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="3116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3116" t="s">
-        <v>3871</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="3117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3117" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="3118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3118" t="s">
-        <v>4457</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="3119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3119" t="s">
-        <v>4458</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="3120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3120" t="s">
-        <v>3873</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="3121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3121" t="s">
-        <v>3874</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="3122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3122" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="3123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3123" t="s">
-        <v>3876</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="3124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3124" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="3125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3125" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="3126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3126" t="s">
-        <v>4459</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="3127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3127" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="3128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3128" t="s">
-        <v>3880</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="3129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3129" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="3130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3130" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="3131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3131" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="3132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3132" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="3133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3133" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="3134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3134" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="3135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3135" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="3136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3136" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="3137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3137" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="3138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3138" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="3139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3139" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="3140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3140" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="3141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3141" t="s">
-        <v>4460</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="3142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3142" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="3143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3143" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="3144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3144" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="3145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3145" t="s">
-        <v>3895</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="3146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3146" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="3147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3147" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="3148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3148" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="3149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3149" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="3150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3150" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="3151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3151" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="3152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3152" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3153" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="3154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3154" t="s">
-        <v>4462</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="3155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3155" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="3156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3156" t="s">
-        <v>3905</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="3157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3157" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="3158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3158" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="3159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3159" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="3160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3160" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="3161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3161" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="3162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3162" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="3163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3163" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="3164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3164" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="3165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3165" t="s">
-        <v>4463</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="3166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3166" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="3167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3167" t="s">
-        <v>3915</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="3168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3168" t="s">
-        <v>3916</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="3169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3169" t="s">
-        <v>3917</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="3170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3170" t="s">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="3171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3171" t="s">
-        <v>3919</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="3172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3172" t="s">
-        <v>3920</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="3173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3173" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="3174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3174" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="3175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3175" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="3176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3176" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="3177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3177" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="3178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3178" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="3179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3179" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="3180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3180" t="s">
-        <v>4464</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="3181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3181" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="3182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3182" t="s">
-        <v>3929</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="3183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3183" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="3184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3184" t="s">
-        <v>3931</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="3185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3185" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="3186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3186" t="s">
-        <v>3933</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="3187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3187" t="s">
-        <v>3934</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="3188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3188" t="s">
-        <v>3935</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="3189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3189" t="s">
-        <v>3936</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="3190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3190" t="s">
-        <v>3937</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="3191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3191" t="s">
-        <v>3938</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="3192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3192" t="s">
-        <v>3939</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="3193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3193" t="s">
-        <v>3940</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="3194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3194" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="3195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3195" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="3196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3196" t="s">
-        <v>3943</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="3197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3197" t="s">
-        <v>3944</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="3198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3198" t="s">
-        <v>4465</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="3199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3199" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="3200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3200" t="s">
-        <v>3946</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="3201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3201" t="s">
-        <v>3947</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="3202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3202" t="s">
-        <v>3948</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="3203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3203" t="s">
-        <v>3949</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="3204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3204" t="s">
-        <v>3950</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="3205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3205" t="s">
-        <v>3951</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="3206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3206" t="s">
-        <v>3952</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="3207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3207" t="s">
-        <v>3953</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="3208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3208" t="s">
-        <v>3954</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="3209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3209" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="3210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3210" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="3211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3211" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="3212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3212" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="3213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3213" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="3214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3214" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="3215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3215" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="3216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3216" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="3217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3217" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="3218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3218" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="3219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3219" t="s">
-        <v>3965</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="3220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3220" t="s">
-        <v>3966</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="3221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3221" t="s">
-        <v>3967</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="3222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3222" t="s">
-        <v>3968</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="3223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3223" t="s">
-        <v>3969</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="3224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3224" t="s">
-        <v>3970</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="3225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3225" t="s">
-        <v>3971</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="3226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3226" t="s">
-        <v>3972</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="3227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3227" t="s">
-        <v>3973</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="3228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3228" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="3229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3229" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="3230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3230" t="s">
-        <v>3976</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="3231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3231" t="s">
-        <v>3977</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="3232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3232" t="s">
-        <v>3978</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="3233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3233" t="s">
-        <v>3979</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="3234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3234" t="s">
-        <v>3980</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="3235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3235" t="s">
-        <v>3981</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="3236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3236" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="3237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3237" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="3238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3238" t="s">
-        <v>3984</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="3239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3239" t="s">
-        <v>3985</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="3240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3240" t="s">
-        <v>3986</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="3241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3241" t="s">
-        <v>3987</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="3242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3242" t="s">
-        <v>3988</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="3243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3243" t="s">
-        <v>3989</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="3244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3244" t="s">
-        <v>3990</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="3245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3245" t="s">
-        <v>3991</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="3246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3246" t="s">
-        <v>4466</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="3247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3247" t="s">
-        <v>3992</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="3248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3248" t="s">
-        <v>3993</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="3249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3249" t="s">
-        <v>3994</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="3250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3250" t="s">
-        <v>3995</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="3251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3251" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="3252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3252" t="s">
-        <v>3997</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="3253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3253" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="3254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3254" t="s">
-        <v>3999</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="3255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3255" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="3256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3256" t="s">
-        <v>4001</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="3257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3257" t="s">
-        <v>4002</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3258" t="s">
-        <v>4003</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="3259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3259" t="s">
-        <v>4004</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="3260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3260" t="s">
-        <v>4005</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="3261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3261" t="s">
-        <v>4006</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="3262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3262" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="3263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3263" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="3264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3264" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="3265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3265" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="3266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3266" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="3267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3267" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="3268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3268" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="3269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3269" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="3270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3270" t="s">
-        <v>4015</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="3271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3271" t="s">
-        <v>4016</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="3272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3272" t="s">
-        <v>4017</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="3273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3273" t="s">
-        <v>4018</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="3274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3274" t="s">
-        <v>4019</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="3275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3275" t="s">
-        <v>4020</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="3276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3276" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="3277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3277" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="3278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3278" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="3279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3279" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="3280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3280" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="3281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3281" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="3282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3282" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="3283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3283" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="3284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3284" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="3285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3285" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="3286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3286" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="3287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3287" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="3288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3288" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="3289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3289" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="3290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3290" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="3291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3291" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="3292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3292" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="3293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3293" t="s">
-        <v>4038</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="3294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3294" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="3295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3295" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="3296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3296" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="3297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3297" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="3298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3298" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="3299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3299" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="3300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3300" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="3301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3301" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="3302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3302" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="3303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3303" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="3304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3304" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="3305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3305" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="3306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3306" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="3307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3307" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="3308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3308" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="3309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3309" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="3310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3310" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="3311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3311" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="3312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3312" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="3313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3313" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="3314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3314" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="3315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3315" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="3316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3316" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="3317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3317" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="3318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3318" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="3319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3319" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="3320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3320" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="3321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3321" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="3322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3322" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="3323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3323" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="3324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3324" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="3325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3325" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="3326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3326" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="3327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3327" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="3328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3328" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="3329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3329" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="3330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3330" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="3331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3331" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="3332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3332" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="3333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3333" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="3334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3334" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="3335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3335" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="3336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3336" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="3337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3337" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="3338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3338" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="3339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3339" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="3340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3340" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="3341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3341" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="3342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3342" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="3343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3343" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="3344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3344" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="3345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3345" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="3346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3346" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="3347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3347" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="3348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3348" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="3349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3349" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="3350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3350" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="3351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3351" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="3352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3352" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="3353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3353" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="3354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3354" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="3355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3355" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="3356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3356" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="3357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3357" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="3358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3358" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="3359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3359" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="3360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3360" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="3361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3361" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="3362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3362" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="3363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3363" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="3364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3364" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="3365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3365" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="3366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3366" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="3367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3367" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="3368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3368" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="3369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3369" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="3370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3370" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="3371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3371" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="3372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3372" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="3373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3373" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="3374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3374" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="3375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3375" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="3376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3376" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="3377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3377" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="3378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3378" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="3379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3379" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="3380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3380" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="3381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3381" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="3382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3382" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="3383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3383" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="3384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3384" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="3385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3385" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="3386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3386" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="3387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3387" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="3388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3388" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="3389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3389" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="3390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3390" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="3391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3391" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="3392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3392" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="3393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3393" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="3394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3394" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="3395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3395" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="3396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3396" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="3397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3397" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="3398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3398" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="3399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3399" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="3400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3400" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="3401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3401" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="3402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3402" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="3403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3403" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="3404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3404" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="3405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3405" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="3406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3406" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="3407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3407" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="3408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3408" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="3409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3409" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="3410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3410" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="3411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3411" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="3412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3412" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="3413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3413" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="3414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3414" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="3415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3415" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="3416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3416" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="3417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3417" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="3418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3418" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="3419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3419" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="3420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3420" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="3421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3421" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="3422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3422" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="3423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3423" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="3424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3424" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="3425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3425" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="3426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3426" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="3427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3427" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="3428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3428" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="3429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3429" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="3430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3430" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="3431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3431" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="3432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3432" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="3433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3433" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="3434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3434" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="3435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3435" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="3436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3436" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="3437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3437" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="3438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3438" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="3439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3439" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="3440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3440" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="3441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3441" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="3442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3442" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="3443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3443" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="3444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3444" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="3445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3445" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="3446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3446" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="3447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3447" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="3448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3448" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="3449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3449" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="3450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3450" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="3451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3451" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="3452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3452" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="3453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3453" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="3454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3454" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="3455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3455" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="3456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3456" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="3457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3457" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="3458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3458" t="s">
-        <v>4203</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="3459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3459" t="s">
-        <v>4204</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="3460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3460" t="s">
-        <v>4205</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="3461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3461" t="s">
-        <v>4206</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="3462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3462" t="s">
-        <v>4207</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="3463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3463" t="s">
-        <v>4208</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="3464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3464" t="s">
-        <v>4209</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="3465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3465" t="s">
-        <v>4210</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="3466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3466" t="s">
-        <v>4211</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="3467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3467" t="s">
-        <v>4212</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="3468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3468" t="s">
-        <v>4213</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="3469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3469" t="s">
-        <v>4214</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="3470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3470" t="s">
-        <v>4215</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="3471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3471" t="s">
-        <v>4216</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="3472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3472" t="s">
-        <v>4217</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="3473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3473" t="s">
-        <v>4218</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="3474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3474" t="s">
-        <v>4219</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="3475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3475" t="s">
-        <v>4220</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="3476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3476" t="s">
-        <v>4221</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="3477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3477" t="s">
-        <v>4222</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="3478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3478" t="s">
-        <v>4223</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="3479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3479" t="s">
-        <v>4224</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="3480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3480" t="s">
-        <v>4225</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="3481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3481" t="s">
-        <v>4226</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="3482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3482" t="s">
-        <v>4227</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="3483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3483" t="s">
-        <v>4228</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="3484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3484" t="s">
-        <v>4229</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="3485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3485" t="s">
-        <v>4230</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="3486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3486" t="s">
-        <v>4231</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="3487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3487" t="s">
-        <v>4232</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="3488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3488" t="s">
-        <v>4233</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="3489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3489" t="s">
-        <v>4234</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="3490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3490" t="s">
-        <v>4235</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="3491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3491" t="s">
-        <v>4236</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="3492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3492" t="s">
-        <v>4237</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="3493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3493" t="s">
-        <v>4238</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="3494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3494" t="s">
-        <v>4239</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="3495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3495" t="s">
-        <v>4240</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="3496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3496" t="s">
-        <v>4241</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="3497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3497" t="s">
-        <v>4242</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="3498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3498" t="s">
-        <v>4243</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="3499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3499" t="s">
-        <v>4244</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="3500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3500" t="s">
-        <v>4245</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="3501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3501" t="s">
-        <v>4246</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="3502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3502" t="s">
-        <v>4247</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="3503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3503" t="s">
-        <v>4248</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="3504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3504" t="s">
-        <v>4249</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="3505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3505" t="s">
-        <v>4250</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="3506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3506" t="s">
-        <v>4251</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="3507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3507" t="s">
-        <v>4252</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="3508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3508" t="s">
-        <v>4253</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="3509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3509" t="s">
-        <v>4254</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="3510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3510" t="s">
-        <v>4255</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="3511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3511" t="s">
-        <v>4256</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="3512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3512" t="s">
-        <v>4257</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="3513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3513" t="s">
-        <v>4258</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="3514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3514" t="s">
-        <v>4259</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="3515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3515" t="s">
-        <v>4260</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="3516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3516" t="s">
-        <v>4261</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="3517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3517" t="s">
-        <v>4262</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="3518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3518" t="s">
-        <v>4263</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="3519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3519" t="s">
-        <v>4264</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="3520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3520" t="s">
-        <v>4265</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="3521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3521" t="s">
-        <v>4266</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="3522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3522" t="s">
-        <v>4267</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="3523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3523" t="s">
-        <v>4268</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="3524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3524" t="s">
-        <v>4269</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="3525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3525" t="s">
-        <v>4270</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="3526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3526" t="s">
-        <v>4271</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="3527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3527" t="s">
-        <v>4272</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="3528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3528" t="s">
-        <v>4273</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="3529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3529" t="s">
-        <v>4274</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="3530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3530" t="s">
-        <v>4275</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="3531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3531" t="s">
-        <v>4276</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="3532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3532" t="s">
-        <v>4277</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="3533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3533" t="s">
-        <v>4278</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="3534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3534" t="s">
-        <v>4279</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="3535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3535" t="s">
-        <v>4280</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="3536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3536" t="s">
-        <v>4281</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="3537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3537" t="s">
-        <v>4282</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="3538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3538" t="s">
-        <v>4283</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="3539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3539" t="s">
-        <v>4284</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="3540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3540" t="s">
-        <v>4285</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="3541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3541" t="s">
-        <v>4286</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="3542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3542" t="s">
-        <v>4287</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="3543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3543" t="s">
-        <v>4288</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="3544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3544" t="s">
-        <v>4289</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="3545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3545" t="s">
-        <v>4290</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="3546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3546" t="s">
-        <v>4291</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="3547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3547" t="s">
-        <v>4292</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="3548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3548" t="s">
-        <v>4293</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="3549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3549" t="s">
-        <v>4294</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="3550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3550" t="s">
-        <v>4295</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="3551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3551" t="s">
-        <v>4296</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="3552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3552" t="s">
-        <v>4297</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="3553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3553" t="s">
-        <v>4298</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="3554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3554" t="s">
-        <v>4299</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="3555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3555" t="s">
-        <v>4300</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="3556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3556" t="s">
-        <v>4301</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="3557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3557" t="s">
-        <v>4302</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="3558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3558" t="s">
-        <v>4303</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="3559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3559" t="s">
-        <v>4304</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="3560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3560" t="s">
-        <v>4305</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="3561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3561" t="s">
-        <v>4306</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="3562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3562" t="s">
-        <v>4307</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="3563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3563" t="s">
-        <v>4308</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="3564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3564" t="s">
-        <v>4309</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="3565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3565" t="s">
-        <v>4310</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="3566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3566" t="s">
-        <v>4311</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="3567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3567" t="s">
-        <v>4312</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="3568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3568" t="s">
-        <v>4313</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="3569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3569" t="s">
-        <v>4314</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="3570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3570" t="s">
-        <v>4315</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="3571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3571" t="s">
-        <v>4316</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="3572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3572" t="s">
-        <v>4317</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="3573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3573" t="s">
-        <v>4318</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="3574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3574" t="s">
-        <v>4319</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="3575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3575" t="s">
-        <v>4320</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="3576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3576" t="s">
-        <v>4321</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="3577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3577" t="s">
-        <v>4322</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="3578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3578" t="s">
-        <v>4323</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="3579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3579" t="s">
-        <v>4324</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="3580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3580" t="s">
-        <v>4325</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="3581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3581" t="s">
-        <v>4326</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="3582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3582" t="s">
-        <v>4327</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="3583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3583" t="s">
-        <v>4328</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="3584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3584" t="s">
-        <v>4329</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="3585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3585" t="s">
-        <v>4330</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="3586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3586" t="s">
-        <v>4331</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="3587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3587" t="s">
-        <v>4332</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="3588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3588" t="s">
-        <v>4333</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="3589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3589" t="s">
-        <v>4334</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="3590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3590" t="s">
-        <v>4335</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="3591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3591" t="s">
-        <v>4336</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="3592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3592" t="s">
-        <v>4337</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="3593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3593" t="s">
-        <v>4338</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="3594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3594" t="s">
-        <v>4339</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="3595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3595" t="s">
-        <v>4340</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="3596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3596" t="s">
-        <v>4341</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="3597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3597" t="s">
-        <v>4342</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="3598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3598" t="s">
-        <v>4343</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="3599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3599" t="s">
-        <v>4344</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="3600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3600" t="s">
-        <v>4345</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="3601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3601" t="s">
-        <v>4346</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="3602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3602" t="s">
-        <v>4347</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="3603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3603" t="s">
-        <v>4348</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="3604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3604" t="s">
-        <v>4349</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="3605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3605" t="s">
-        <v>4350</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="3606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3606" t="s">
-        <v>4351</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="3607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3607" t="s">
-        <v>4352</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="3608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3608" t="s">
-        <v>4353</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="3609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3609" t="s">
-        <v>4354</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="3610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3610" t="s">
-        <v>4355</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="3611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3611" t="s">
-        <v>4356</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="3612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3612" t="s">
-        <v>4357</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="3613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3613" t="s">
-        <v>4358</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="3614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3614" t="s">
-        <v>4359</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="3615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3615" t="s">
-        <v>4360</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="3616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3616" t="s">
-        <v>4361</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="3617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3617" t="s">
-        <v>4362</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="3618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3618" t="s">
-        <v>4363</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="3619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3619" t="s">
-        <v>4364</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="3620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3620" t="s">
-        <v>4365</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="3621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3621" t="s">
-        <v>4366</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="3622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3622" t="s">
-        <v>4367</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="3623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3623" t="s">
-        <v>4368</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="3624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3624" t="s">
-        <v>4369</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="3625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3625" t="s">
-        <v>4370</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="3626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3626" t="s">
-        <v>4371</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="3627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3627" t="s">
-        <v>4372</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="3628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3628" t="s">
-        <v>4373</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="3629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3629" t="s">
-        <v>4374</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="3630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3630" t="s">
-        <v>4375</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="3631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3631" t="s">
-        <v>4376</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="3632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3632" t="s">
-        <v>4377</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="3633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3633" t="s">
-        <v>4378</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="3634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3634" t="s">
-        <v>4379</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="3635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3635" t="s">
-        <v>4380</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="3636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3636" t="s">
-        <v>4381</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="3637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3637" t="s">
-        <v>4382</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="3638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3638" t="s">
-        <v>4383</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="3639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3639" t="s">
-        <v>4384</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="3640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3640" t="s">
-        <v>4385</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="3641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3641" t="s">
-        <v>4386</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="3642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3642" t="s">
-        <v>4387</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="3643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3643" t="s">
-        <v>4388</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="3644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3644" t="s">
-        <v>4389</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="3645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3645" t="s">
-        <v>4390</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="3646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3646" t="s">
-        <v>4391</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="3647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3647" t="s">
-        <v>4392</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="3648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3648" t="s">
-        <v>4393</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="3649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3649" t="s">
-        <v>4394</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="3650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3650" t="s">
-        <v>4395</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="3651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3651" t="s">
-        <v>4396</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="3652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3652" t="s">
-        <v>4397</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="3653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3653" t="s">
-        <v>4398</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="3654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3654" t="s">
-        <v>4399</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="3655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3655" t="s">
-        <v>4400</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="3656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3656" t="s">
-        <v>4401</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="3657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3657" t="s">
-        <v>4402</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="3658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3658" t="s">
-        <v>4403</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="3659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3659" t="s">
-        <v>4404</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="3660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3660" t="s">
-        <v>4405</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="3661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3661" t="s">
-        <v>4406</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="3662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3662" t="s">
-        <v>4407</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="3663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3663" t="s">
-        <v>4408</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="3664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3664" t="s">
-        <v>4409</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="3665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3665" t="s">
-        <v>4410</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="3666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3666" t="s">
-        <v>4411</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="3667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3667" t="s">
-        <v>4412</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="3668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3668" t="s">
-        <v>4413</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="3669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3669" t="s">
-        <v>4414</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="3670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3670" t="s">
-        <v>4415</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="3671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3671" t="s">
-        <v>4416</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="3672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3672" t="s">
-        <v>4417</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="3673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3673" t="s">
-        <v>4418</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="3674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3674" t="s">
-        <v>4419</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="3675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3675" t="s">
-        <v>4420</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="3676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3676" t="s">
-        <v>4421</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="3677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3677" t="s">
-        <v>4422</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="3678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3678" t="s">
-        <v>4423</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="3679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3679" t="s">
-        <v>4424</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="3680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3680" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="3681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3681" t="s">
-        <v>4426</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="3682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3682" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="3683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3683" t="s">
-        <v>4428</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="3684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3684" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="3685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3685" t="s">
-        <v>4430</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="3686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3686" t="s">
-        <v>4431</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="3687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3687" t="s">
-        <v>4432</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="3688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3688" t="s">
-        <v>887</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="3689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3689" t="s">
-        <v>888</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="3690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3690" t="s">
-        <v>889</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="3691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3691" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="3692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3692" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3693" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3694" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3695" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3696" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3697" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3698" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3699" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3700" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="3701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3701" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3702" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3703" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3704" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3705" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="3706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3706" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3707" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3708" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="3709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3709" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3710" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3711" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="3712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3712" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="3713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3713" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3714" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3715" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3716" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3717" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3718" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3719" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3720" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3721" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="3722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3722" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3723" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3724" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3725" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="3726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3726" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3727" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3728" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3729" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3730" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3731" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3732" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="3733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3733" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3734" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="3735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3735" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="3736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3736" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3737" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3738" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3739" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3740" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3741" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3742" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="3743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3743" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="3744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3744" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3745" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3746" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="3747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3747" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="3748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3748" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3749" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="3750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3750" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3751" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3752" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3753" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3754" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3755" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3756" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3757" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3758" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3759" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3760" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3761" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="3762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3762" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3763" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="3764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3764" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3765" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3766" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3767" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3768" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3769" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3770" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3771" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3772" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3773" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3774" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3775" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3776" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3777" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3778" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3779" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3780" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3781" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3782" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3783" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3784" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3785" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="3786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3786" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3787" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3788" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3789" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3790" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3791" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3792" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3793" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3794" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3795" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3796" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="3797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3797" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3798" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3799" t="s">
-        <v>4467</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3800" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3801" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3802" t="s">
-        <v>1000</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="3803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3803" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3804" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3805" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3806" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3807" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3808" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3809" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3810" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3811" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="3812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3812" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3813" t="s">
-        <v>4468</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3814" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3815" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3816" t="s">
-        <v>1013</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="3817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3817" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3818" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="3819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3819" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3820" t="s">
-        <v>4469</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3821" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3822" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3823" t="s">
-        <v>1019</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="3824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3824" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3825" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3826" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="3827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3827" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3828" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3829" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3830" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3831" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3832" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3833" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3834" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="3835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3835" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3836" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="3837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3837" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3838" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="3839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3839" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3840" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3841" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="3842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3842" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3843" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3844" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="3845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3845" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3846" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3847" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3848" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="3849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3849" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3850" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="3851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3851" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3852" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="3853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3853" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3854" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="3855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3855" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3856" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3857" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="3858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3858" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3859" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3860" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3861" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="3862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3862" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="3863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3863" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3864" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="3865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3865" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3866" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3867" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="3868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3868" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3869" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3870" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3871" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3872" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3873" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3874" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="3875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3875" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3876" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="3877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3877" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3878" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3879" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="3880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3880" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3881" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3882" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3883" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3884" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3885" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3886" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3887" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3888" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="3889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3889" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3890" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3891" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="3892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3892" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3893" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3894" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3895" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3896" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3897" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3898" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3899" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3900" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3901" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3902" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="3903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3903" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3904" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3905" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="3906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3906" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="3907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3907" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3908" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3909" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3910" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3911" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="3912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3912" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3913" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3914" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3915" t="s">
-        <v>4433</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="3916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3916" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="3917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3917" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3918" t="s">
-        <v>1113</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="3919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3919" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3920" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3921" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3922" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3923" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3924" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3925" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3926" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3927" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3928" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3929" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3930" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3931" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="3932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3932" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="3933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3933" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="3934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3934" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3935" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="3936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3936" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3937" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="3938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3938" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3939" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3940" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3941" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="3942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3942" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3943" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="3944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3944" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="3945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3945" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3946" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3947" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3948" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3949" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3950" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="3951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3951" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="3952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3952" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="3953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3953" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="3954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3954" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3955" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="3956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3956" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3957" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3958" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="3959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3959" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="3960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3960" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="3961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3961" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3962" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3963" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="3964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3964" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3965" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3966" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="3967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3967" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="3968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3968" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="3969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3969" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3970" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3971" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3972" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="3973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3973" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3974" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3975" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="3976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3976" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="3977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3977" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="3978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3978" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3979" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="3980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3980" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3981" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="3982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3982" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3983" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="3984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3984" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3985" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="3986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3986" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="3987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3987" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3988" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3989" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3990" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3991" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="3992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3992" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3993" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="3994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3994" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="3995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3995" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3996" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="3997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3997" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="3998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3998" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3999" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="4000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4000" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="4001" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4001" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="4002" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4002" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="4003" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4003" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="4004" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4004" t="s">
-        <v>4434</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="4005" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4005" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="4006" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4006" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="4007" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4007" t="s">
-        <v>1201</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="4008" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4008" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4009" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4009" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4010" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4010" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4011" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4011" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4012" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4012" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="4013" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4013" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="4014" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4014" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="4015" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4015" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="4016" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4016" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="4017" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4017" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4018" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4018" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="4019" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4019" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="4020" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4020" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="4021" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4021" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="4022" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4022" t="s">
-        <v>4470</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="4023" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4023" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="4024" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4024" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="4025" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4025" t="s">
-        <v>1218</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="4026" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4026" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="4027" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4027" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="4028" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4028" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="4029" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4029" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="4030" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4030" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4031" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4031" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="4032" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4032" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="4033" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4033" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="4034" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4034" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="4035" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4035" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4036" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4036" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="4037" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4037" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4038" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4038" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4039" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4039" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4040" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4040" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="4041" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4041" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4042" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4042" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4043" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4043" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4044" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4044" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4045" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4045" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4046" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4046" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="4047" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4047" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="4048" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4048" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="4049" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4049" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="4050" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4050" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="4051" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4051" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="4052" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4052" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4053" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4053" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="4054" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4054" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="4055" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4055" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4056" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4056" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4057" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4057" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="4058" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4058" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="4059" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4059" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="4060" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4060" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4061" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4061" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4062" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4062" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="4063" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4063" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="4064" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4064" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="4065" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4065" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4066" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4066" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="4067" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4067" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="4068" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4068" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4069" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4069" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4070" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4070" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="4071" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4071" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="4072" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4072" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4073" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4073" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4074" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4074" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4075" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4075" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="4076" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4076" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="4077" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4077" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4078" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4078" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="4079" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4079" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="4080" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4080" t="s">
-        <v>4435</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="4081" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4081" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="4082" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4082" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="4083" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4083" t="s">
-        <v>1276</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="4084" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4084" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="4085" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4085" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="4086" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4086" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="4087" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4087" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="4088" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4088" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="4089" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4089" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="4090" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4090" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="4091" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4091" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="4092" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4092" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="4093" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4093" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="4094" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4094" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="4095" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4095" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4096" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4096" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="4097" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4097" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4098" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4098" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="4099" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4099" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4100" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="4101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4101" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="4102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4102" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="4103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4103" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="4104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4104" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="4105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4105" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="4106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4106" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="4107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4107" t="s">
-        <v>4436</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="4108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4108" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="4109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4109" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="4110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4110" t="s">
-        <v>1302</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="4111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4111" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4112" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="4113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4113" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="4114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4114" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="4115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4115" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="4116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4116" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="4117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4117" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="4118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4118" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="4119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4119" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="4120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4120" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="4121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4121" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4122" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4123" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4124" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="4125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4125" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="4126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4126" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="4127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4127" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="4128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4128" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="4129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4129" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4130" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="4131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4131" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="4132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4132" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="4133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4133" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="4134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4134" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4135" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="4136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4136" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4137" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4138" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="4139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4139" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="4140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4140" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="4141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4141" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="4142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4142" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="4143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4143" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="4144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4144" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="4145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4145" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="4146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4146" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="4147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4147" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="4148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4148" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4149" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="4150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4150" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="4151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4151" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="4152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4152" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4153" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="4154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4154" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="4155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4155" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="4156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4156" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="4157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4157" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="4158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4158" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="4159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4159" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4160" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="4161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4161" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4162" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="4163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4163" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="4164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4164" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="4165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4165" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="4166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4166" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="4167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4167" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="4168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4168" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="4169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4169" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="4170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4170" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="4171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4171" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="4172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4172" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="4173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4173" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="4174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4174" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="4175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4175" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="4176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4176" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="4177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4177" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="4178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4178" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="4179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4179" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="4180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4180" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="4181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4181" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="4182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4182" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4183" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="4184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4184" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="4185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4185" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="4186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4186" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="4187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4187" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4188" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4189" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="4190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4190" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4191" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4192" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4193" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="4194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4194" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="4195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4195" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="4196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4196" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="4197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4197" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="4198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4198" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="4199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4199" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4200" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4201" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4202" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4203" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4204" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4205" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4206" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4207" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4208" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="4209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4209" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4210" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="4211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4211" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4212" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4213" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4214" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="4215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4215" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4216" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4217" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4218" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4219" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="4220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4220" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="4221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4221" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="4222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4222" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4223" t="s">
-        <v>4437</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="4224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4224" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="4225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4225" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4226" t="s">
-        <v>1417</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="4227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4227" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="4228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4228" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="4229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4229" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="4230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4230" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4231" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4232" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4233" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="4234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4234" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4235" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="4236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4236" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4237" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="4238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4238" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="4239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4239" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4240" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="4241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4241" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="4242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4242" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="4243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4243" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="4244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4244" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="4245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4245" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="4246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4246" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="4247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4247" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="4248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4248" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="4249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4249" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="4250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4250" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4251" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4252" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4253" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4254" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="4255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4255" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="4256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4256" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="4257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4257" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="4258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4258" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="4259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4259" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="4260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4260" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="4261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4261" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="4262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4262" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="4263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4263" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="4264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4264" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="4265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4265" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="4266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4266" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="4267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4267" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="4268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4268" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="4269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4269" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="4270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4270" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="4271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4271" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4272" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="4273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4273" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="4274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4274" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="4275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4275" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="4276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4276" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="4277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4277" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="4278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4278" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4279" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="4280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4280" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="4281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4281" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="4282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4282" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="4283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4283" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="4284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4284" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="4285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4285" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="4286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4286" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="4287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4287" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="4288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4288" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="4289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4289" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4290" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="4291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4291" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="4292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4292" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="4293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4293" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="4294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4294" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="4295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4295" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="4296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4296" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="4297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4297" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="4298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4298" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="4299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4299" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="4300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4300" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="4301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4301" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4302" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="4303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4303" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="4304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4304" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="4305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4305" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="4306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4306" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="4307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4307" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="4308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4308" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="4309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4309" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="4310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4310" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="4311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4311" t="s">
-        <v>4471</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="4312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4312" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4313" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="4314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4314" t="s">
-        <v>1504</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="4315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4315" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="4316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4316" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4317" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="4318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4318" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4319" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="4320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4320" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4321" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="4322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4322" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="4323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4323" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4324" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="4325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4325" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="4326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4326" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="4327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4327" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="4328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4328" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="4329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4329" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="4330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4330" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="4331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4331" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="4332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4332" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="4333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4333" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4334" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="4335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4335" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="4336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4336" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4337" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="4338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4338" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="4339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4339" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="4340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4340" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="4341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4341" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="4342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4342" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="4343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4343" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="4344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4344" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="4345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4345" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="4346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4346" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="4347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4347" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="4348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4348" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="4349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4349" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4350" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="4351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4351" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="4352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4352" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="4353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4353" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="4354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4354" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="4355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4355" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="4356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4356" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="4357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4357" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="4358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4358" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="4359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4359" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="4360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4360" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="4361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4361" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="4362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4362" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="4363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4363" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4364" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="4365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4365" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="4366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4366" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4367" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="4368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4368" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="4369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4369" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="4370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4370" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="4371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4371" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="4372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4372" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="4373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4373" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="4374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4374" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="4375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4375" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="4376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4376" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="4377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4377" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="4378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4378" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="4379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4379" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="4380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4380" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="4381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4381" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="4382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4382" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="4383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4383" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="4384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4384" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="4385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4385" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="4386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4386" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="4387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4387" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="4388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4388" t="s">
-        <v>4438</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="4389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4389" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="4390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4390" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="4391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4391" t="s">
-        <v>1580</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="4392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4392" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="4393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4393" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="4394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4394" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4395" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="4396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4396" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="4397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4397" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="4398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4398" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="4399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4399" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="4400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4400" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="4401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4401" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="4402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4402" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="4403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4403" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="4404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4404" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4405" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="4406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4406" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="4407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4407" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="4408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4408" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="4409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4409" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="4410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4410" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="4411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4411" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4412" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="4413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4413" t="s">
-        <v>4439</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4414" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4415" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4416" t="s">
-        <v>1604</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="4417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4417" t="s">
-        <v>4472</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="4418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4418" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="4419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4419" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="4420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4420" t="s">
-        <v>1607</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="4421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4421" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="4422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4422" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="4423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4423" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="4424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4424" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4425" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="4426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4426" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="4427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4427" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4428" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="4429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4429" t="s">
-        <v>4473</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="4430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4430" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="4431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4431" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="4432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4432" t="s">
-        <v>1618</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="4433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4433" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4434" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="4435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4435" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="4436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4436" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="4437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4437" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4438" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="4439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4439" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="4440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4440" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="4441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4441" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="4442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4442" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="4443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4443" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4444" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="4445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4445" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="4446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4446" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="4447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4447" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="4448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4448" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="4449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4449" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="4450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4450" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="4451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4451" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="4452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4452" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="4453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4453" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4454" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="4455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4455" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="4456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4456" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="4457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4457" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="4458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4458" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="4459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4459" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="4460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4460" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4461" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="4462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4462" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="4463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4463" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="4464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4464" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4465" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="4466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4466" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="4467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4467" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4468" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4469" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="4470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4470" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4471" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="4472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4472" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="4473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4473" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="4474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4474" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4475" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4476" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4477" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="4475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4475" s="2"/>
-    </row>
-    <row r="4476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4476" s="2"/>
-    </row>
-    <row r="4477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4477" s="2"/>
+    <row r="4478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4478" s="2"/>
+    </row>
+    <row r="4479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4479" s="2"/>
+    </row>
+    <row r="4480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4480" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
